--- a/biology/Botanique/Joseph_Saint-Gal/Joseph_Saint-Gal.xlsx
+++ b/biology/Botanique/Joseph_Saint-Gal/Joseph_Saint-Gal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Joseph Saint-Gal (1841 - 1932) est un botaniste, enseignant à l'école nationale d'agriculture de Grandjouan à Nozay (Loire-Atlantique) de 1870 à 1907. Il est auteur d'ouvrages reconnus sur l'étude de la flore.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 1er février 1841 à Redon (Ille-et-Vilaine), son père est conducteur des Ponts et Chaussées. Tout d'abord élève de l’École Impériale d’Agriculture de Grand-Jouan à Nozay[Note 1], diplômé en 1863, Joseph Saint-Gal devient répétiteur-préparateur de génie rural et de botanique-sylviculture en 1864[1]. Puis il exerce en tant qu'enseignant à l'école impériale d'agriculture de Grignon en 1869 où il reste un an. Devenu professeur de la chaire de botanique et sylviculture, il revient à l'école nationale d'agriculture de Grandjouan en 1870, où il est également président de l’Association amicale des Anciens Elèves créée en 1863. Il décède en 1932[2]. Gaston Genevier l'ajoute en dédicace de son ouvrage l’Essai monographique paru en 1881[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 1er février 1841 à Redon (Ille-et-Vilaine), son père est conducteur des Ponts et Chaussées. Tout d'abord élève de l’École Impériale d’Agriculture de Grand-Jouan à Nozay[Note 1], diplômé en 1863, Joseph Saint-Gal devient répétiteur-préparateur de génie rural et de botanique-sylviculture en 1864. Puis il exerce en tant qu'enseignant à l'école impériale d'agriculture de Grignon en 1869 où il reste un an. Devenu professeur de la chaire de botanique et sylviculture, il revient à l'école nationale d'agriculture de Grandjouan en 1870, où il est également président de l’Association amicale des Anciens Elèves créée en 1863. Il décède en 1932. Gaston Genevier l'ajoute en dédicace de son ouvrage l’Essai monographique paru en 1881.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est auteur de plusieurs ouvrages de botanique[4], dont un ouvrage sur le recensement de la flore des environs de Grandjouan à Nozay[5], ainsi qu'un ouvrage sur l'étude de la circulation de la sève dans les plantes[6]. 
-Il a planté en 1865 un séquoia géant (wellingtonia gigantéa) sur le terrain de l'école de Grandjouan à Nozay[Note 2], toujours présent en 2015 mesurant 30,50 mètres de hauteur pour une circonférence de 6,40 mètres à un mètre du sol[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est auteur de plusieurs ouvrages de botanique, dont un ouvrage sur le recensement de la flore des environs de Grandjouan à Nozay, ainsi qu'un ouvrage sur l'étude de la circulation de la sève dans les plantes. 
+Il a planté en 1865 un séquoia géant (wellingtonia gigantéa) sur le terrain de l'école de Grandjouan à Nozay[Note 2], toujours présent en 2015 mesurant 30,50 mètres de hauteur pour une circonférence de 6,40 mètres à un mètre du sol.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il reçoit la Légion d’honneur le 30 juillet 1894[8]. Il a été chevalier du mérite agricole puis officier du mérite agricole en juillet 1891, médaille d'or à l'Exposition Universelle de 1900[9]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il reçoit la Légion d’honneur le 30 juillet 1894. Il a été chevalier du mérite agricole puis officier du mérite agricole en juillet 1891, médaille d'or à l'Exposition Universelle de 1900. 
 </t>
         </is>
       </c>
